--- a/abacimodules/excels/Sub-Categories.xlsx
+++ b/abacimodules/excels/Sub-Categories.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
   <si>
     <t>Category</t>
   </si>
@@ -31,21 +31,36 @@
     <t>Foodwatch Id</t>
   </si>
   <si>
+    <t>Foodwatch Sub Id</t>
+  </si>
+  <si>
+    <t>Foodwatch Sub Name</t>
+  </si>
+  <si>
     <t>Accommodation</t>
   </si>
   <si>
     <t xml:space="preserve">Common Kitchen in Labor Accommodations </t>
   </si>
   <si>
+    <t>Food Service Business</t>
+  </si>
+  <si>
     <t>Bakery /confectionery</t>
   </si>
   <si>
     <t>Bakery Products Manufacturing</t>
   </si>
   <si>
+    <t>Food Manufacturing</t>
+  </si>
+  <si>
     <t>Bakery with Production</t>
   </si>
   <si>
+    <t>Supermarkets and Departmental Store</t>
+  </si>
+  <si>
     <t>Biscuit Manufacturing</t>
   </si>
   <si>
@@ -55,6 +70,9 @@
     <t xml:space="preserve">Bread &amp; Bakery Products Trading </t>
   </si>
   <si>
+    <t>Food Trading</t>
+  </si>
+  <si>
     <t>Confectionary &amp; Chocolate Trading</t>
   </si>
   <si>
@@ -118,6 +136,9 @@
     <t>Food Stuff Supply Services</t>
   </si>
   <si>
+    <t xml:space="preserve">Logistics and Warehousing </t>
+  </si>
+  <si>
     <t xml:space="preserve">Outdoor Catering in Restaurants </t>
   </si>
   <si>
@@ -142,6 +163,9 @@
     <t>Food Truck- Ice Cream Vending</t>
   </si>
   <si>
+    <t>Food Trucks</t>
+  </si>
+  <si>
     <t>Ice Cream Manufacturing</t>
   </si>
   <si>
@@ -169,6 +193,9 @@
     <t xml:space="preserve">Governmental Hospital </t>
   </si>
   <si>
+    <t>Government Medical Facility</t>
+  </si>
+  <si>
     <t>Hotel</t>
   </si>
   <si>
@@ -242,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">Restaurant Management </t>
+  </si>
+  <si>
+    <t>Corporate Office Management</t>
   </si>
   <si>
     <t>Sale of Non Halal Beverages</t>
@@ -264,8 +294,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -273,6 +303,90 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,99 +408,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +430,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -407,16 +445,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,13 +461,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,169 +623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,21 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -666,6 +681,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,11 +729,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,21 +767,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,130 +788,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,21 +1244,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.5727272727273" customWidth="1"/>
     <col min="2" max="2" width="48.5727272727273" customWidth="1"/>
     <col min="3" max="3" width="55.5545454545455" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="36.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1241,971 +1273,1391 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>321</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>281</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>170</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>238</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>349</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>419</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>453</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>389</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>360</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>327</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>306</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>242</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>324</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D33">
         <v>154</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D34">
         <v>163</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>226</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>65</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>318</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>350</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D43">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>65</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>447</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>65</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D47">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D48">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D49">
         <v>266</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D50">
         <v>183</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>283</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>66</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D52">
         <v>284</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D53">
         <v>377</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>65</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D54">
         <v>121</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>65</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D55">
         <v>220</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D56">
         <v>290</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D57">
         <v>150</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>65</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D59">
         <v>153</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D60">
         <v>446</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D61">
         <v>289</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>65</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D62">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>65</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D63">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>65</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D64">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>65</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D65">
         <v>343</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>92</v>
+      </c>
+      <c r="F65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D66">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>65</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D67">
         <v>372</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D68">
         <v>141</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>65</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D69">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D70">
         <v>55</v>
+      </c>
+      <c r="E70">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="3:4">
@@ -2365,10 +2817,6 @@
     <row r="109" spans="3:4">
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D110">

--- a/abacimodules/excels/Sub-Categories.xlsx
+++ b/abacimodules/excels/Sub-Categories.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$109</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>Category</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Common Kitchen in Labor Accommodations </t>
   </si>
   <si>
+    <t>Common Kitchen in Labor Accommodations</t>
+  </si>
+  <si>
     <t>Food Service Business</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
   </si>
   <si>
     <t>Department Store</t>
+  </si>
+  <si>
+    <t>Mall</t>
   </si>
 </sst>
 </file>
@@ -294,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -308,32 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,22 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -378,14 +345,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -408,6 +383,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -415,8 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,18 +428,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,6 +450,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,187 +467,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,32 +705,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,23 +744,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,130 +794,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,20 +1250,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="48.5727272727273" customWidth="1"/>
-    <col min="3" max="3" width="55.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="23.6" customWidth="1"/>
+    <col min="2" max="2" width="48.6" customWidth="1"/>
+    <col min="3" max="3" width="55.5272727272727" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="36.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="17.2" customWidth="1"/>
+    <col min="6" max="6" width="36.5272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1288,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>450</v>
@@ -1297,72 +1303,72 @@
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>116</v>
-      </c>
-      <c r="E4">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>210</v>
-      </c>
-      <c r="E5">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1371,18 +1377,18 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1391,38 +1397,38 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="E7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="E8">
         <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1431,18 +1437,18 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1451,18 +1457,18 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1471,18 +1477,18 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1491,18 +1497,18 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1511,18 +1517,18 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="E13">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1531,18 +1537,18 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1551,18 +1557,18 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1571,18 +1577,18 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>349</v>
+        <v>46</v>
       </c>
       <c r="E16">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -1591,53 +1597,53 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="E17">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="E18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>453</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1651,13 +1657,13 @@
         <v>31</v>
       </c>
       <c r="D20">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="E20">
         <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1671,38 +1677,38 @@
         <v>32</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>389</v>
       </c>
       <c r="E21">
         <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -1711,18 +1717,18 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>360</v>
+        <v>58</v>
       </c>
       <c r="E23">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -1731,58 +1737,58 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="E24">
         <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>327</v>
+        <v>86</v>
       </c>
       <c r="E25">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>327</v>
+      </c>
+      <c r="E26">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
         <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26">
-        <v>306</v>
-      </c>
-      <c r="E26">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -1791,18 +1797,18 @@
         <v>41</v>
       </c>
       <c r="D27">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="E27">
         <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -1811,18 +1817,18 @@
         <v>42</v>
       </c>
       <c r="D28">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="E28">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -1831,18 +1837,18 @@
         <v>43</v>
       </c>
       <c r="D29">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="E29">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -1851,18 +1857,18 @@
         <v>44</v>
       </c>
       <c r="D30">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="E30">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
@@ -1871,18 +1877,18 @@
         <v>45</v>
       </c>
       <c r="D31">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="E31">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
@@ -1891,18 +1897,18 @@
         <v>46</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E32">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -1911,38 +1917,38 @@
         <v>47</v>
       </c>
       <c r="D33">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="E33">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>154</v>
+      </c>
+      <c r="E34">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
         <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>163</v>
-      </c>
-      <c r="E34">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -1951,18 +1957,18 @@
         <v>50</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E35">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
@@ -1971,18 +1977,18 @@
         <v>51</v>
       </c>
       <c r="D36">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E36">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -1991,18 +1997,18 @@
         <v>52</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E37">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -2011,18 +2017,18 @@
         <v>53</v>
       </c>
       <c r="D38">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -2031,18 +2037,18 @@
         <v>54</v>
       </c>
       <c r="D39">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="E39">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
@@ -2051,58 +2057,58 @@
         <v>55</v>
       </c>
       <c r="D40">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="E40">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="E41">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>350</v>
+      </c>
+      <c r="E42">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
         <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42">
-        <v>35</v>
-      </c>
-      <c r="E42">
-        <v>65</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -2111,18 +2117,18 @@
         <v>61</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -2131,18 +2137,18 @@
         <v>62</v>
       </c>
       <c r="D44">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>65</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
@@ -2151,18 +2157,18 @@
         <v>63</v>
       </c>
       <c r="D45">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E45">
         <v>65</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
@@ -2171,18 +2177,18 @@
         <v>64</v>
       </c>
       <c r="D46">
-        <v>447</v>
+        <v>39</v>
       </c>
       <c r="E46">
         <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -2191,18 +2197,18 @@
         <v>65</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="E47">
         <v>65</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
@@ -2211,38 +2217,38 @@
         <v>66</v>
       </c>
       <c r="D48">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
         <v>67</v>
       </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="E49">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
@@ -2251,18 +2257,18 @@
         <v>69</v>
       </c>
       <c r="D50">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="E50">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>70</v>
@@ -2271,18 +2277,18 @@
         <v>70</v>
       </c>
       <c r="D51">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="E51">
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
@@ -2291,18 +2297,18 @@
         <v>71</v>
       </c>
       <c r="D52">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52">
         <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
         <v>72</v>
@@ -2311,18 +2317,18 @@
         <v>72</v>
       </c>
       <c r="D53">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="E53">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
@@ -2331,18 +2337,18 @@
         <v>73</v>
       </c>
       <c r="D54">
-        <v>121</v>
+        <v>377</v>
       </c>
       <c r="E54">
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
@@ -2351,18 +2357,18 @@
         <v>74</v>
       </c>
       <c r="D55">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E55">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
         <v>75</v>
@@ -2371,18 +2377,18 @@
         <v>75</v>
       </c>
       <c r="D56">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="E56">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
         <v>76</v>
@@ -2391,18 +2397,18 @@
         <v>76</v>
       </c>
       <c r="D57">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="E57">
         <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -2411,18 +2417,18 @@
         <v>77</v>
       </c>
       <c r="D58">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="E58">
         <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>78</v>
@@ -2431,18 +2437,18 @@
         <v>78</v>
       </c>
       <c r="D59">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="E59">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
@@ -2451,18 +2457,18 @@
         <v>79</v>
       </c>
       <c r="D60">
-        <v>446</v>
+        <v>153</v>
       </c>
       <c r="E60">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>80</v>
@@ -2471,18 +2477,18 @@
         <v>80</v>
       </c>
       <c r="D61">
-        <v>289</v>
+        <v>446</v>
       </c>
       <c r="E61">
         <v>65</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>81</v>
@@ -2491,18 +2497,18 @@
         <v>81</v>
       </c>
       <c r="D62">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="E62">
         <v>65</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>82</v>
@@ -2511,78 +2517,78 @@
         <v>82</v>
       </c>
       <c r="D63">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E63">
         <v>65</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E64">
         <v>65</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>343</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66">
+        <v>343</v>
+      </c>
+      <c r="E66">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
         <v>85</v>
-      </c>
-      <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66">
-        <v>68</v>
-      </c>
-      <c r="E66">
-        <v>65</v>
-      </c>
-      <c r="F66" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>86</v>
@@ -2591,18 +2597,18 @@
         <v>86</v>
       </c>
       <c r="D67">
-        <v>372</v>
+        <v>68</v>
       </c>
       <c r="E67">
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>87</v>
@@ -2611,72 +2617,112 @@
         <v>87</v>
       </c>
       <c r="D68">
-        <v>141</v>
+        <v>372</v>
       </c>
       <c r="E68">
         <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>88</v>
       </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E69">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E70">
         <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="3:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <v>55</v>
+      </c>
+      <c r="E71">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
@@ -2684,12 +2730,12 @@
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="4"/>
+    <row r="77" spans="3:4">
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="2:4">
+      <c r="B78" s="4"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
@@ -2701,12 +2747,12 @@
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="4"/>
+    <row r="81" spans="3:4">
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="2:4">
+      <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
@@ -2817,6 +2863,10 @@
     <row r="109" spans="3:4">
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="2"/>
+      <c r="D110" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D110">
